--- a/InputData/land/FoFObE/Fraction of Forests Owned by Entity.xlsx
+++ b/InputData/land/FoFObE/Fraction of Forests Owned by Entity.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\land\FoFObE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anaxolt/Google Drive/2021/D.Development/TARGET_eps-us-3.2.1/InputData/land/FoFObE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D0EA2B-02FF-453F-9596-BFD3D1EA0E4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A8CFCD-85B5-9C45-9013-4ADC9430147A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9150" yWindow="690" windowWidth="29520" windowHeight="21060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4080" yWindow="500" windowWidth="29520" windowHeight="20500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="FoFObE" sheetId="3" r:id="rId3"/>
+    <sheet name="Data" sheetId="7" r:id="rId1"/>
+    <sheet name="FoFObE" sheetId="8" r:id="rId2"/>
+    <sheet name="About" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>FoFObE Fraction of Forests Owned by Entity</t>
   </si>
@@ -41,83 +41,129 @@
     <t>Source:</t>
   </si>
   <si>
-    <t>National Forest</t>
-  </si>
-  <si>
-    <t>Other public</t>
-  </si>
-  <si>
-    <t>Forest industry</t>
-  </si>
-  <si>
-    <t>Other private</t>
-  </si>
-  <si>
-    <t>Timber land</t>
-  </si>
-  <si>
-    <t>Reserved forest</t>
-  </si>
-  <si>
-    <t>Other forest</t>
-  </si>
-  <si>
-    <t>U.S.</t>
-  </si>
-  <si>
-    <t>Ownership of Forest Land (million hectares)</t>
-  </si>
-  <si>
-    <t>U.S. Forest Service</t>
-  </si>
-  <si>
-    <t>U.S. Forest Facts and Historical Trends</t>
-  </si>
-  <si>
-    <t>http://www.fia.fs.fed.us/library/briefings-summaries-overviews/docs/ForestFactsMetric.pdf</t>
-  </si>
-  <si>
-    <t>Page 6</t>
-  </si>
-  <si>
     <t>government</t>
   </si>
   <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>The amount of government-owned forest is provided in the table.</t>
-  </si>
-  <si>
-    <t>We assume that all privately-owned forest used for timber land is owned</t>
-  </si>
-  <si>
-    <t>by industry, and half of the remaining privately-owned forest land is owned</t>
-  </si>
-  <si>
-    <t>by industry.  The remainder is owned by consumers.</t>
-  </si>
-  <si>
     <t>foreign entities</t>
   </si>
   <si>
     <t>labor and consumers</t>
   </si>
   <si>
-    <t>Fraction of Forest Owned (dimensionless)</t>
-  </si>
-  <si>
     <t>domestic industries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secretaría de Medio Ambiente y Recursos Naturales- Comisión Nacional Forestal </t>
+  </si>
+  <si>
+    <t>Inventario Nacional Forestal y de Suelos</t>
+  </si>
+  <si>
+    <t>Tabla 25, pág. 143</t>
+  </si>
+  <si>
+    <t>We only include Forest and Jungle land types.</t>
+  </si>
+  <si>
+    <t>We assume industry owns half of the "private property" total and consumers</t>
+  </si>
+  <si>
+    <t>own the other half.</t>
+  </si>
+  <si>
+    <t>We assume government has payment responsibility for half of the "socialized</t>
+  </si>
+  <si>
+    <t>property" total and consumers have responsibility for the other half.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabla 25. Distribución de la superficie forestaal nacional de acuerdo con el tipo de propiedad y por formación vegetal </t>
+  </si>
+  <si>
+    <t>Ecosystem</t>
+  </si>
+  <si>
+    <t>Propiedad pública</t>
+  </si>
+  <si>
+    <t>Propiedad privada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Propiedad social </t>
+  </si>
+  <si>
+    <t>Total RAN</t>
+  </si>
+  <si>
+    <t>Sin tipo de propiedad definido</t>
+  </si>
+  <si>
+    <t>Total formaciòn</t>
+  </si>
+  <si>
+    <t>Government property</t>
+  </si>
+  <si>
+    <t>Private Property</t>
+  </si>
+  <si>
+    <t>Socialized Property (owned by a town or community, management responsibility split between government and townspeople)</t>
+  </si>
+  <si>
+    <t>Total Lands in National Agrarian Registry</t>
+  </si>
+  <si>
+    <t>Unowned</t>
+  </si>
+  <si>
+    <t>Total Land</t>
+  </si>
+  <si>
+    <t>Selvas</t>
+  </si>
+  <si>
+    <t>Jungle</t>
+  </si>
+  <si>
+    <t>Subtotal arbolado</t>
+  </si>
+  <si>
+    <t>Forest Subtotal</t>
+  </si>
+  <si>
+    <t>Matorral xeròfilo</t>
+  </si>
+  <si>
+    <t>Desert scrub</t>
+  </si>
+  <si>
+    <t>Otras àreas forestales</t>
+  </si>
+  <si>
+    <t>Other vegetated areas</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Fuente: Carta de Uso de Suelo y Vegetación del INEGI, Serie VI-2014 y Marco Geoestádistico 2010 versión 5.A</t>
+  </si>
+  <si>
+    <t>Fraction of Forest Owned</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,20 +180,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -159,11 +222,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -172,18 +236,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="3">
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{5D499BA1-E932-E446-A7E0-864826478C42}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{C2B457B8-BDE0-324E-9055-52BD125B8702}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -518,285 +595,315 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C244BC47-CC01-7349-A321-E75263CEC686}">
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="12">
+        <v>996789.08</v>
+      </c>
+      <c r="D5" s="12">
+        <v>9984647.1799999997</v>
+      </c>
+      <c r="E5" s="12">
+        <f>6497290.42+10009886.55</f>
+        <v>16507176.970000001</v>
+      </c>
+      <c r="F5" s="12">
+        <v>27488613.219999999</v>
+      </c>
+      <c r="G5" s="12">
+        <v>5991192.4400000004</v>
+      </c>
+      <c r="H5" s="12">
+        <v>33479805.66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1867556.5</v>
+      </c>
+      <c r="D6" s="12">
+        <v>6830147.7400000002</v>
+      </c>
+      <c r="E6" s="12">
+        <f>3899016.91+11948834.3</f>
+        <v>15847851.210000001</v>
+      </c>
+      <c r="F6" s="12">
+        <v>24545555.449999999</v>
+      </c>
+      <c r="G6" s="12">
+        <v>6854034.8499999996</v>
+      </c>
+      <c r="H6" s="12">
+        <v>31399590.300000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="13">
+        <f>SUM(C5:C6)</f>
+        <v>2864345.58</v>
+      </c>
+      <c r="D7" s="13">
+        <f>SUM(D5:D6)</f>
+        <v>16814794.920000002</v>
+      </c>
+      <c r="E7" s="13">
+        <f>SUM(E5:E6)</f>
+        <v>32355028.18</v>
+      </c>
+      <c r="F7" s="13">
+        <f>SUM(F5:F6)</f>
+        <v>52034168.670000002</v>
+      </c>
+      <c r="G7" s="13">
+        <f>SUM(G5:G6)</f>
+        <v>12845227.289999999</v>
+      </c>
+      <c r="H7" s="13">
+        <f>SUM(H5:H6)</f>
+        <v>64879395.960000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1645212.72</v>
+      </c>
+      <c r="D8" s="12">
+        <v>21998460.899999999</v>
+      </c>
+      <c r="E8" s="12">
+        <f>980927.85+15515951.82</f>
+        <v>16496879.67</v>
+      </c>
+      <c r="F8" s="12">
+        <v>40140553.299999997</v>
+      </c>
+      <c r="G8" s="12">
+        <v>16788703.199999999</v>
+      </c>
+      <c r="H8" s="12">
+        <v>56929256.32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="12">
+        <v>496698.06</v>
+      </c>
+      <c r="D9" s="12">
+        <v>7375371.5499999998</v>
+      </c>
+      <c r="E9" s="12">
+        <f>330879.38+3893014.94</f>
+        <v>4223894.32</v>
+      </c>
+      <c r="F9" s="12">
+        <v>12095963.93</v>
+      </c>
+      <c r="G9" s="12">
+        <v>4136629.19</v>
+      </c>
+      <c r="H9" s="12">
+        <v>16232593.119999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
+        <v>37</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="12">
+        <f>C7+C8+C9</f>
+        <v>5006256.3599999994</v>
+      </c>
+      <c r="D10" s="12">
+        <f>D7+D8+D9</f>
+        <v>46188627.369999997</v>
+      </c>
+      <c r="E10" s="12">
+        <f>E7+E8+E9</f>
+        <v>53075802.170000002</v>
+      </c>
+      <c r="F10" s="12">
+        <f>F7+F8+F9</f>
+        <v>104270685.90000001</v>
+      </c>
+      <c r="G10" s="12">
+        <f>G7+G8+G9</f>
+        <v>33770559.68</v>
+      </c>
+      <c r="H10" s="12">
+        <f>H7+H8+H9</f>
+        <v>138041245.40000001</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5187219-7C46-A049-BE53-76D66A29D067}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="5">
-        <f>SUM(Data!B3,Data!B7)/SUM(Data!B3,Data!B7,Data!B11,Data!B15)</f>
-        <v>0.42384105960264901</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <f>(SUM(Data!C5:C6)+SUM(Data!E5:E6)/2)/SUM(Data!F5:F6)</f>
+        <v>0.36594914758345076</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="5">
-        <f>SUM(Data!B11,Data!B16,Data!B18/2)/SUM(Data!B3,Data!B7,Data!B11,Data!B15)</f>
-        <v>0.52814569536423839</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4">
+        <f>SUM(Data!D5:D6)/2/SUM(Data!F5:F6)</f>
+        <v>0.16157455139371213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="5">
-        <f>(Data!B18/2)/SUM(Data!B3,Data!B7,Data!B11,Data!B15)</f>
-        <v>4.8013245033112585E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4">
+        <f>(SUM(Data!D5:D6)/2+SUM(Data!E5:E6)/2)/SUM(Data!F5:F6)</f>
+        <v>0.47247630121501855</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -805,4 +912,85 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" s="3">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>